--- a/league_standings/Premier_League_standing.xlsx
+++ b/league_standings/Premier_League_standing.xlsx
@@ -612,13 +612,13 @@
         <v>1.97</v>
       </c>
       <c r="M3" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="N3" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="O3" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="P3" t="n">
         <v>0.7</v>
@@ -672,10 +672,10 @@
         <v>39</v>
       </c>
       <c r="N4" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="P4" t="n">
         <v>-0.03</v>
@@ -1011,10 +1011,10 @@
         <v>1.5</v>
       </c>
       <c r="M10" t="n">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="N10" t="n">
-        <v>44.5</v>
+        <v>44.3</v>
       </c>
       <c r="O10" t="n">
         <v>5</v>
@@ -1125,13 +1125,13 @@
         <v>1.34</v>
       </c>
       <c r="M12" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="N12" t="n">
-        <v>48.5</v>
+        <v>48.7</v>
       </c>
       <c r="O12" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="P12" t="n">
         <v>-0.03</v>
@@ -1296,10 +1296,10 @@
         <v>1.19</v>
       </c>
       <c r="M15" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="N15" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="O15" t="n">
         <v>-4.4</v>
@@ -1581,10 +1581,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="M20" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="N20" t="n">
-        <v>62.8</v>
+        <v>62.6</v>
       </c>
       <c r="O20" t="n">
         <v>-34.9</v>
